--- a/biology/Histoire de la zoologie et de la botanique/Richard_Eric_Holttum/Richard_Eric_Holttum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Eric_Holttum/Richard_Eric_Holttum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Eric Holttum est un botaniste britannique, né le 20 juillet 1895 à Linton, (Cambridgeshire) et mort le 18 septembre 1990 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans une famille quaker à Linton, où son père dirige l'épicerie du village. Il fait ses études à Saffron Walden (Essex) puis à York. Il entre au St John's College de Cambridge en 1914 mais doit interrompre ses études à cause de la Première Guerre mondiale où il sert comme ambulancier (il reçoit la Croix de guerre). Après la guerre, il reprend ses études et est diplômé en 1920. Il devient en 1922 assistant du directeur du jardin botanique de Singapour Isaac Henry Burkill et se consacre à l’étude des fougères de la péninsule malaise. Il remplace Burkill après sa démission en 1925 mais sa prise de fonction n’est officialisée qu’en 1926.
 Il développe la culture des orchidées, commence à organiser des expositions et participe à la création et à la vie de deux sociétés consacrées à la promotion de leur culture. Une médaille portant son nom (la Eric Holttum medal) récompense chaque année la création d’un hybride d’orchidée.
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>médaille linnéenne de la Linnean Society of London.
 médaille Victoria de l'honneur de la Royal Horticultural Society.
